--- a/Manual Testing/HW_2_Тест-кейс, чек-бокс и баг репорты Авито от Макеенко ПА.xlsx
+++ b/Manual Testing/HW_2_Тест-кейс, чек-бокс и баг репорты Авито от Макеенко ПА.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vservfs\Сервер ГК СНАБЖЕНИЕ\Личные папки\ГК Лаборатория\makeenko\Desktop\QA\Алиса\Сдано\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\QA\Git\Home-Works-Completed\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19740" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18390" windowHeight="11145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист Авито" sheetId="6" r:id="rId1"/>
@@ -47,12 +47,6 @@
     <t>После многократного нажатия на кнопку поворота фотографии, она перстаёт поворачиваться и кнопка становится неактивна</t>
   </si>
   <si>
-    <t>Войтив  форму добавления объявления и загруить несколько фото. Попробовать их поворачивать круглой стрелочкой в углу фотки, нажимая пять-шесть раз</t>
-  </si>
-  <si>
-    <t>Фотографии поворачиваются так как нужно и столько раз сколько нажата кнопка стрелки</t>
-  </si>
-  <si>
     <t>Поворот перестаёт работать после 5-6 нажатий на стрелку и эта возможность не восстанавливается</t>
   </si>
   <si>
@@ -441,17 +435,31 @@
   </si>
   <si>
     <t>Priority: High</t>
+  </si>
+  <si>
+    <t>Войти в  форму добавления объявления и загруpить несколько фото. Попробовать их поворачивать круглой стрелочкой в углу фотки, нажимая пять-шесть раз</t>
+  </si>
+  <si>
+    <t>Фотографии поворачиваются по часовой или против, в зависимости от нажатой стрелки, столько раз сколько нажата кнопка стрелки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -762,61 +770,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,35 +834,38 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1562,7 +1573,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1570,24 +1581,24 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1595,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -1605,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
@@ -1615,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
@@ -1625,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -1635,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
@@ -1645,7 +1656,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -1655,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -1665,7 +1676,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -1675,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
@@ -1685,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
@@ -1695,7 +1706,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -1705,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
@@ -1715,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
@@ -1725,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
@@ -1735,7 +1746,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
@@ -1745,7 +1756,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10"/>
@@ -1755,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10"/>
@@ -1765,7 +1776,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10"/>
@@ -1775,7 +1786,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="9"/>
@@ -1789,7 +1800,7 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
@@ -1799,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -1809,7 +1820,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
@@ -1819,7 +1830,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="9"/>
@@ -1829,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
@@ -1839,7 +1850,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -1849,7 +1860,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
@@ -1859,7 +1870,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -1869,7 +1880,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="9"/>
@@ -1879,7 +1890,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10"/>
@@ -1889,7 +1900,7 @@
         <v>29</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="9"/>
@@ -1897,7 +1908,7 @@
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -1907,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
@@ -1917,7 +1928,7 @@
         <v>31</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
@@ -1927,7 +1938,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
@@ -1937,7 +1948,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -1947,7 +1958,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="10"/>
@@ -1957,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="10"/>
@@ -1967,7 +1978,7 @@
         <v>36</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10"/>
@@ -1977,7 +1988,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="10"/>
@@ -1987,7 +1998,7 @@
         <v>38</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="10"/>
@@ -1997,7 +2008,7 @@
         <v>39</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10"/>
@@ -2007,7 +2018,7 @@
         <v>40</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="10"/>
@@ -2017,7 +2028,7 @@
         <v>41</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="10"/>
@@ -2027,7 +2038,7 @@
         <v>42</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="9"/>
@@ -2037,7 +2048,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50" s="10"/>
       <c r="E50" s="9"/>
@@ -2047,7 +2058,7 @@
         <v>44</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="10"/>
       <c r="E51" s="9"/>
@@ -2057,7 +2068,7 @@
         <v>45</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="9"/>
@@ -2067,7 +2078,7 @@
         <v>46</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="9"/>
@@ -2077,7 +2088,7 @@
         <v>47</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="9"/>
@@ -2087,7 +2098,7 @@
         <v>48</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="9"/>
@@ -2101,7 +2112,7 @@
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="4"/>
       <c r="C57" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="9"/>
@@ -2111,7 +2122,7 @@
         <v>49</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -2121,7 +2132,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -2131,7 +2142,7 @@
         <v>51</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -2141,7 +2152,7 @@
         <v>52</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -2151,7 +2162,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -2161,7 +2172,7 @@
         <v>54</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -2171,7 +2182,7 @@
         <v>55</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
@@ -2181,7 +2192,7 @@
         <v>56</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -2191,7 +2202,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -2201,7 +2212,7 @@
         <v>58</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -2212,7 +2223,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -2222,7 +2233,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="10"/>
@@ -2232,7 +2243,7 @@
         <v>61</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -2246,7 +2257,7 @@
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -2256,7 +2267,7 @@
         <v>62</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -2266,7 +2277,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
@@ -2276,7 +2287,7 @@
         <v>64</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -2286,7 +2297,7 @@
         <v>65</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
@@ -2296,7 +2307,7 @@
         <v>66</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -2306,7 +2317,7 @@
         <v>67</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
@@ -2316,7 +2327,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -2326,7 +2337,7 @@
         <v>69</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -2336,7 +2347,7 @@
         <v>70</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
@@ -2346,7 +2357,7 @@
         <v>71</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -2356,7 +2367,7 @@
         <v>72</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -2366,7 +2377,7 @@
         <v>73</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="10"/>
@@ -2376,7 +2387,7 @@
         <v>74</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="10"/>
@@ -2386,7 +2397,7 @@
         <v>75</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="10"/>
@@ -2396,7 +2407,7 @@
         <v>76</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
@@ -2406,7 +2417,7 @@
         <v>77</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D88" s="10"/>
       <c r="E88" s="10"/>
@@ -2416,7 +2427,7 @@
         <v>78</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="10"/>
@@ -2430,7 +2441,7 @@
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="10"/>
@@ -2440,7 +2451,7 @@
         <v>79</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="10"/>
@@ -2450,7 +2461,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="10"/>
@@ -2460,7 +2471,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="10"/>
@@ -2470,7 +2481,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="10"/>
@@ -2480,7 +2491,7 @@
         <v>83</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="10"/>
@@ -2490,7 +2501,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="10"/>
@@ -2500,7 +2511,7 @@
         <v>85</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="10"/>
@@ -2510,7 +2521,7 @@
         <v>86</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="10"/>
@@ -2520,7 +2531,7 @@
         <v>87</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="10"/>
@@ -2530,7 +2541,7 @@
         <v>88</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="10"/>
@@ -2540,7 +2551,7 @@
         <v>89</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="10"/>
@@ -2550,7 +2561,7 @@
         <v>90</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="10"/>
@@ -2560,7 +2571,7 @@
         <v>91</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="10"/>
@@ -2570,7 +2581,7 @@
         <v>92</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="10"/>
@@ -2580,7 +2591,7 @@
         <v>93</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="10"/>
@@ -2590,7 +2601,7 @@
         <v>94</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="10"/>
@@ -2600,7 +2611,7 @@
         <v>95</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="10"/>
@@ -2610,7 +2621,7 @@
         <v>96</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="10"/>
@@ -2620,7 +2631,7 @@
         <v>97</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="10"/>
@@ -2630,7 +2641,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="10"/>
@@ -2640,7 +2651,7 @@
         <v>99</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="10"/>
@@ -2650,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="10"/>
@@ -2660,7 +2671,7 @@
         <v>101</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="10"/>
@@ -2670,7 +2681,7 @@
         <v>102</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="10"/>
@@ -2701,7 +2712,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -2719,7 +2730,7 @@
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -2747,7 +2758,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K21"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2760,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="3"/>
@@ -2773,162 +2784,162 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2941,162 +2952,162 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
+      <c r="A15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
+      <c r="A23" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -3109,157 +3120,190 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="32"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="35"/>
+        <v>16</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
+        <v>17</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="35"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="32"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="32"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="35"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:K2"/>
@@ -3272,39 +3316,6 @@
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="A33:K33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
